--- a/data/input/employee_absence_data_33.xlsx
+++ b/data/input/employee_absence_data_33.xlsx
@@ -464,16 +464,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>59007</v>
+        <v>94947</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sra. Luísa Cardoso</t>
+          <t>Maria Liz Nogueira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -482,114 +482,114 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45087</v>
+        <v>45089</v>
       </c>
       <c r="G2" t="n">
-        <v>3318.13</v>
+        <v>7010.61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>66702</v>
+        <v>32206</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>João Pacheco</t>
+          <t>Pedro Henrique Vargas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45088</v>
+        <v>45103</v>
       </c>
       <c r="G3" t="n">
-        <v>3377.26</v>
+        <v>4000.13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>75170</v>
+        <v>81541</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Srta. Joana Nunes</t>
+          <t>Maria Fernanda Lopes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45079</v>
+        <v>45084</v>
       </c>
       <c r="G4" t="n">
-        <v>10594.84</v>
+        <v>3449.96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>66179</v>
+        <v>60115</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bruna Ferreira</t>
+          <t>Thiago Fonseca</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45082</v>
+        <v>45079</v>
       </c>
       <c r="G5" t="n">
-        <v>11174.93</v>
+        <v>2288.44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>32394</v>
+        <v>25152</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Joana Sampaio</t>
+          <t>Julia Dias</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -598,27 +598,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45103</v>
+        <v>45084</v>
       </c>
       <c r="G6" t="n">
-        <v>7604.93</v>
+        <v>3214.49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17336</v>
+        <v>23359</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Laura Araújo</t>
+          <t>Josué Cassiano</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -627,85 +627,85 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45083</v>
+        <v>45096</v>
       </c>
       <c r="G7" t="n">
-        <v>5556.25</v>
+        <v>7037.41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>85381</v>
+        <v>80877</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Thomas Mendes</t>
+          <t>Maria Cecília Azevedo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45091</v>
+        <v>45104</v>
       </c>
       <c r="G8" t="n">
-        <v>6388.21</v>
+        <v>5106.57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>57063</v>
+        <v>92030</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>José Miguel Cavalcante</t>
+          <t>Apollo Peixoto</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45081</v>
+        <v>45099</v>
       </c>
       <c r="G9" t="n">
-        <v>9420.18</v>
+        <v>7201.75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>99959</v>
+        <v>37909</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Otto Rezende</t>
+          <t>Carlos Eduardo Pastor</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -714,27 +714,27 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45091</v>
+        <v>45088</v>
       </c>
       <c r="G10" t="n">
-        <v>11808.84</v>
+        <v>2907.44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>82036</v>
+        <v>78802</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ana Julia Pinto</t>
+          <t>Antony Monteiro</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -743,13 +743,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45086</v>
+        <v>45102</v>
       </c>
       <c r="G11" t="n">
-        <v>6260.14</v>
+        <v>6388.7</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_33.xlsx
+++ b/data/input/employee_absence_data_33.xlsx
@@ -464,16 +464,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>94947</v>
+        <v>95634</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maria Liz Nogueira</t>
+          <t>Dr. Joaquim Sousa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,53 +485,53 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45089</v>
+        <v>45090</v>
       </c>
       <c r="G2" t="n">
-        <v>7010.61</v>
+        <v>2569.77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>32206</v>
+        <v>72897</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pedro Henrique Vargas</t>
+          <t>Sra. Isabelly Pinto</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45103</v>
+        <v>45089</v>
       </c>
       <c r="G3" t="n">
-        <v>4000.13</v>
+        <v>5923.98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>81541</v>
+        <v>83000</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maria Fernanda Lopes</t>
+          <t>Ísis Oliveira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -540,56 +540,56 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45084</v>
+        <v>45083</v>
       </c>
       <c r="G4" t="n">
-        <v>3449.96</v>
+        <v>6730.48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>60115</v>
+        <v>96119</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Thiago Fonseca</t>
+          <t>Dom da Paz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45079</v>
+        <v>45098</v>
       </c>
       <c r="G5" t="n">
-        <v>2288.44</v>
+        <v>3345.14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>25152</v>
+        <v>6173</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Julia Dias</t>
+          <t>Sr. Felipe Cunha</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -601,24 +601,24 @@
         <v>8</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45084</v>
+        <v>45091</v>
       </c>
       <c r="G6" t="n">
-        <v>3214.49</v>
+        <v>3863.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>23359</v>
+        <v>18305</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Josué Cassiano</t>
+          <t>Thomas Mendes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -627,51 +627,51 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45096</v>
+        <v>45100</v>
       </c>
       <c r="G7" t="n">
-        <v>7037.41</v>
+        <v>5839.93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>80877</v>
+        <v>62093</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maria Cecília Azevedo</t>
+          <t>Luiz Fernando Rezende</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>45104</v>
       </c>
       <c r="G8" t="n">
-        <v>5106.57</v>
+        <v>6200.79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>92030</v>
+        <v>15442</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Apollo Peixoto</t>
+          <t>Kamilly Gonçalves</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -681,75 +681,75 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45099</v>
+        <v>45103</v>
       </c>
       <c r="G9" t="n">
-        <v>7201.75</v>
+        <v>7661.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>37909</v>
+        <v>94542</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Pastor</t>
+          <t>José Miguel Alves</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45088</v>
+        <v>45086</v>
       </c>
       <c r="G10" t="n">
-        <v>2907.44</v>
+        <v>2041.94</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>78802</v>
+        <v>34619</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Antony Monteiro</t>
+          <t>Ana Liz Rezende</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>6</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45102</v>
+        <v>45104</v>
       </c>
       <c r="G11" t="n">
-        <v>6388.7</v>
+        <v>8266.67</v>
       </c>
     </row>
   </sheetData>
